--- a/biology/Botanique/Cosentinia_vellea/Cosentinia_vellea.xlsx
+++ b/biology/Botanique/Cosentinia_vellea/Cosentinia_vellea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cosentinia vellea est une espèce de fougère de la famille des Ptéridacées, la seule représentante de son genre Cosentinia.
 </t>
@@ -511,21 +523,17 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce est décrite en 1789 par le botaniste écossais William Aiton dans son Hortus Kewensis sous le nom de Acrostichum velleum[1].
-Le genre Cosentinia est créé spécifiquement pour cette espèce par le botaniste italien Agostino Todaro en 1866[1].
-Synonymes[1]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L'espèce est décrite en 1789 par le botaniste écossais William Aiton dans son Hortus Kewensis sous le nom de Acrostichum velleum.
+Le genre Cosentinia est créé spécifiquement pour cette espèce par le botaniste italien Agostino Todaro en 1866.
+Synonymes
 Cincinalis vellea
 Notholaena vellea
 Gymnogramma vellea
-Cheilanthes vellea
-Sous-espèces
-Deux sous-espèces ont été définies, à partir des deux cytotypes connus, l'un diploïde, l'autre tétraploïde[2].
-Cosentinia vellea (Aiton) Tod. subsp. vellea (tétraploïde, 2n=116)
-Cosentinia vellea subsp. bivalens (Reichst.) Rivas-Martínez et Salvo (diploïde, 2n=58)
-Difficilement distinguables par leur aspect, elles se différencient par le diamètre de leurs spores, plus larges chez vellea que bivalens[3].
-</t>
+Cheilanthes vellea</t>
         </is>
       </c>
     </row>
@@ -550,10 +558,24 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Deux sous-espèces ont été définies, à partir des deux cytotypes connus, l'un diploïde, l'autre tétraploïde.
+Cosentinia vellea (Aiton) Tod. subsp. vellea (tétraploïde, 2n=116)
+Cosentinia vellea subsp. bivalens (Reichst.) Rivas-Martínez et Salvo (diploïde, 2n=58)
+Difficilement distinguables par leur aspect, elles se différencient par le diamètre de leurs spores, plus larges chez vellea que bivalens.
+</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -576,16 +598,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cosentinia vellea est présente dans toute l'Europe méridionale, en Afrique du Nord, au Moyen-Orient et en Asie jusqu'en Inde[1].
-En 2007, elle est découverte sur l'île d'Elbe, où elle était inconnue jusqu'alors. Ce lieu devient sa présence la plus au nord connue parmi toute sa zone de distribution[4].
-</t>
-        </is>
-      </c>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -608,12 +626,48 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cosentinia vellea est présente dans toute l'Europe méridionale, en Afrique du Nord, au Moyen-Orient et en Asie jusqu'en Inde.
+En 2007, elle est découverte sur l'île d'Elbe, où elle était inconnue jusqu'alors. Ce lieu devient sa présence la plus au nord connue parmi toute sa zone de distribution.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Cosentinia_vellea</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Cosentinia_vellea</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Protection</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cosentinia vellea est évaluée Espèce de préoccupation mineure (LC) au niveau de l'Europe, Espèce vulnérable (VU) au niveau de la France et Espèce quasi menacée (NT) au niveau de la Corse sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019[5].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cosentinia vellea est évaluée Espèce de préoccupation mineure (LC) au niveau de l'Europe, Espèce vulnérable (VU) au niveau de la France et Espèce quasi menacée (NT) au niveau de la Corse sur la Liste rouge de la flore vasculaire de France métropolitaine de 2019.
 </t>
         </is>
       </c>
